--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
-    <sheet name="其他" sheetId="4" r:id="rId2"/>
-    <sheet name="均值" sheetId="5" r:id="rId3"/>
-    <sheet name="机身半径" sheetId="6" r:id="rId4"/>
-    <sheet name="B值减缩系数" sheetId="7" r:id="rId5"/>
-    <sheet name="宽度修正技术" sheetId="8" r:id="rId6"/>
+    <sheet name="控件属性已经操作方法" sheetId="9" r:id="rId2"/>
+    <sheet name="其他" sheetId="4" r:id="rId3"/>
+    <sheet name="均值" sheetId="5" r:id="rId4"/>
+    <sheet name="机身半径" sheetId="6" r:id="rId5"/>
+    <sheet name="B值减缩系数" sheetId="7" r:id="rId6"/>
+    <sheet name="宽度修正技术" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -187,6 +188,124 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="A4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+方式一：self.dlg_spec.Edit4.set_text(LayerThan2)
+方式二：
+self.dlg_spec.child_window(title="均  值",class_name="Button")</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+通用
+特殊一
+特殊二</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+路径弹窗</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+警告弹窗</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
     <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -345,7 +464,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="203">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1110,6 +1229,331 @@
   </si>
   <si>
     <t>操作子窗口标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fqj2d001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fqj2d002</t>
+  </si>
+  <si>
+    <t>fqj2d003</t>
+  </si>
+  <si>
+    <t>fqj2d004</t>
+  </si>
+  <si>
+    <t>fqj2d005</t>
+  </si>
+  <si>
+    <t>fqj2d006</t>
+  </si>
+  <si>
+    <t>fqj2d007</t>
+  </si>
+  <si>
+    <t>fqj2d008</t>
+  </si>
+  <si>
+    <t>fqj2d009</t>
+  </si>
+  <si>
+    <t>fqj2d010</t>
+  </si>
+  <si>
+    <t>fqj2d011</t>
+  </si>
+  <si>
+    <t>fqj2d012</t>
+  </si>
+  <si>
+    <t>fqj2d013</t>
+  </si>
+  <si>
+    <t>fqj2d014</t>
+  </si>
+  <si>
+    <t>fqj2d015</t>
+  </si>
+  <si>
+    <t>fqj2d016</t>
+  </si>
+  <si>
+    <t>fqj2d017</t>
+  </si>
+  <si>
+    <t>fqj2d018</t>
+  </si>
+  <si>
+    <t>fqj2d019</t>
+  </si>
+  <si>
+    <t>fqj2d020</t>
+  </si>
+  <si>
+    <t>fqj2d021</t>
+  </si>
+  <si>
+    <t>fqj2d022</t>
+  </si>
+  <si>
+    <t>fqj2d023</t>
+  </si>
+  <si>
+    <t>fqj2d024</t>
+  </si>
+  <si>
+    <t>fqj2d025</t>
+  </si>
+  <si>
+    <t>fqj2d026</t>
+  </si>
+  <si>
+    <t>fqj2d027</t>
+  </si>
+  <si>
+    <t>fqj2d028</t>
+  </si>
+  <si>
+    <t>fqj2d029</t>
+  </si>
+  <si>
+    <t>fqj2d030</t>
+  </si>
+  <si>
+    <t>fqj2d031</t>
+  </si>
+  <si>
+    <t>fqj2d032</t>
+  </si>
+  <si>
+    <t>fqj2d033</t>
+  </si>
+  <si>
+    <t>fqj2d034</t>
+  </si>
+  <si>
+    <t>fqj2d035</t>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有弹窗出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗中输入文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭弹窗按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有嵌套弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗关闭按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选框</t>
+  </si>
+  <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机身半径Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B值减缩系数Edit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>校核Button</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等到时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1212,7 +1656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1248,6 +1692,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1554,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR9"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -2747,10 +3194,1493 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR36"/>
+  <dimension ref="A1:AI15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1:AR1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:AI12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="35" width="5.86328125" style="2" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+    </row>
+    <row r="5" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+    </row>
+    <row r="6" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AA15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AD15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AH15" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI15" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AS36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AR1" sqref="AR1:AR1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="148.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2758,11 +4688,13 @@
     <col min="1" max="1" width="9" style="12"/>
     <col min="2" max="2" width="71.86328125" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.46484375" style="3" customWidth="1"/>
-    <col min="4" max="66" width="6.46484375" style="12" customWidth="1"/>
-    <col min="67" max="16384" width="9" style="12"/>
+    <col min="4" max="43" width="6.46484375" style="12" customWidth="1"/>
+    <col min="44" max="44" width="7.59765625" style="12" customWidth="1"/>
+    <col min="45" max="67" width="6.46484375" style="12" customWidth="1"/>
+    <col min="68" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2893,11 +4825,16 @@
         <v>4</v>
       </c>
       <c r="AR1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AS1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
+    <row r="2" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>113</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
@@ -3024,9 +4961,14 @@
       <c r="AQ2" s="10" t="s">
         <v>109</v>
       </c>
+      <c r="AR2" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>114</v>
+      </c>
       <c r="B3" s="4" t="s">
         <v>79</v>
       </c>
@@ -3153,9 +5095,14 @@
       <c r="AQ3" s="10" t="s">
         <v>109</v>
       </c>
+      <c r="AR3" s="10">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>78</v>
       </c>
@@ -3282,9 +5229,14 @@
       <c r="AQ4" s="10" t="s">
         <v>109</v>
       </c>
+      <c r="AR4" s="10">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="5" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>116</v>
+      </c>
       <c r="B5" s="4" t="s">
         <v>88</v>
       </c>
@@ -3412,8 +5364,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>117</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>83</v>
       </c>
@@ -3541,8 +5495,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>118</v>
+      </c>
       <c r="B7" s="4" t="s">
         <v>84</v>
       </c>
@@ -3670,8 +5626,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>89</v>
       </c>
@@ -3799,7 +5757,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="B9" s="4" t="s">
         <v>85</v>
       </c>
@@ -3927,7 +5888,10 @@
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>121</v>
+      </c>
       <c r="B10" s="4" t="s">
         <v>90</v>
       </c>
@@ -3935,7 +5899,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="B11" s="4" t="s">
         <v>60</v>
       </c>
@@ -3943,7 +5910,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="B12" s="4" t="s">
         <v>61</v>
       </c>
@@ -3951,7 +5921,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>124</v>
+      </c>
       <c r="B13" s="4" t="s">
         <v>80</v>
       </c>
@@ -3959,7 +5932,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>125</v>
+      </c>
       <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
@@ -3967,7 +5943,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>126</v>
+      </c>
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
@@ -3975,7 +5954,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
@@ -3983,7 +5965,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>128</v>
+      </c>
       <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
@@ -3991,7 +5976,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11" t="s">
+        <v>129</v>
+      </c>
       <c r="B18" s="4" t="s">
         <v>9</v>
       </c>
@@ -3999,7 +5987,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11" t="s">
+        <v>130</v>
+      </c>
       <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
@@ -4007,7 +5998,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>131</v>
+      </c>
       <c r="B20" s="4" t="s">
         <v>11</v>
       </c>
@@ -4015,7 +6009,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11" t="s">
+        <v>132</v>
+      </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
@@ -4023,7 +6020,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11" t="s">
+        <v>133</v>
+      </c>
       <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
@@ -4031,7 +6031,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>134</v>
+      </c>
       <c r="B23" s="4" t="s">
         <v>14</v>
       </c>
@@ -4039,7 +6042,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11" t="s">
+        <v>135</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>15</v>
       </c>
@@ -4047,7 +6053,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11" t="s">
+        <v>136</v>
+      </c>
       <c r="B25" s="4" t="s">
         <v>16</v>
       </c>
@@ -4055,7 +6064,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11" t="s">
+        <v>137</v>
+      </c>
       <c r="B26" s="4" t="s">
         <v>17</v>
       </c>
@@ -4063,7 +6075,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11" t="s">
+        <v>138</v>
+      </c>
       <c r="B27" s="4" t="s">
         <v>18</v>
       </c>
@@ -4071,7 +6086,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11" t="s">
+        <v>139</v>
+      </c>
       <c r="B28" s="4" t="s">
         <v>19</v>
       </c>
@@ -4079,7 +6097,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11" t="s">
+        <v>140</v>
+      </c>
       <c r="B29" s="4" t="s">
         <v>20</v>
       </c>
@@ -4087,7 +6108,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11" t="s">
+        <v>141</v>
+      </c>
       <c r="B30" s="4" t="s">
         <v>21</v>
       </c>
@@ -4095,7 +6119,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11" t="s">
+        <v>142</v>
+      </c>
       <c r="B31" s="4" t="s">
         <v>22</v>
       </c>
@@ -4103,7 +6130,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11" t="s">
+        <v>143</v>
+      </c>
       <c r="B32" s="4" t="s">
         <v>23</v>
       </c>
@@ -4111,7 +6141,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11" t="s">
+        <v>144</v>
+      </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
       </c>
@@ -4119,7 +6152,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11" t="s">
+        <v>145</v>
+      </c>
       <c r="B34" s="4" t="s">
         <v>25</v>
       </c>
@@ -4127,7 +6163,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11" t="s">
+        <v>146</v>
+      </c>
       <c r="B35" s="4" t="s">
         <v>26</v>
       </c>
@@ -4135,7 +6174,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="2:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="B36" s="4" t="s">
         <v>27</v>
       </c>
@@ -4156,7 +6198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4171,7 +6213,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4184,21 +6226,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -4215,4 +6242,19 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="B值减缩系数" sheetId="7" r:id="rId6"/>
     <sheet name="宽度修正技术" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -238,9 +238,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-通用
-特殊一
-特殊二</t>
+窗口一
+窗口二
+窗口三</t>
         </r>
       </text>
     </comment>
@@ -464,7 +464,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1269" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="208">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1003,10 +1003,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>平行于主承载方向宽度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Y轴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1073,19 +1069,6 @@
   <si>
     <t>1、选择校核类型勾选框勾选全部都勾选；
 2、曲板结构勾选框勾选，对应的机身半径文本框默认输入；
-3、结构类型单选框勾选“翼盒蒙皮”；
-4、B值减缩系数文本框默认输入；
-5、主承载方向中坐标系选择“单元坐标系”，参考方向选择“Y轴”；
-6、宽度修正系数下拉框选择“平行于主承载方向宽度”，对应的文本框默认输入；
-7、蒙皮计算宽度选择“方法一”
-8、载荷类型选择极值；
-9、校核工况选择全部的工况；
-10、选择全部的结构单元。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、选择校核类型勾选框勾选全部都勾选；
-2、曲板结构勾选框勾选，对应的机身半径文本框默认输入；
 3、结构类型单选框勾选“其他”；
 4、B值减缩系数文本框默认输入；
 5、主承载方向中坐标系选择“全局坐标系”，参考方向选择“Y轴”；
@@ -1144,10 +1127,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>垂直于主承载方向宽度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>开始校核计算···
 校核计算已完成！</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1169,6 +1148,410 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>平行于主承载方向 宽度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期值信息类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个被测模块</t>
+  </si>
+  <si>
+    <t>预期结果文本信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作窗口标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作子窗口标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fqj2d001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fqj2d002</t>
+  </si>
+  <si>
+    <t>fqj2d003</t>
+  </si>
+  <si>
+    <t>fqj2d004</t>
+  </si>
+  <si>
+    <t>fqj2d005</t>
+  </si>
+  <si>
+    <t>fqj2d006</t>
+  </si>
+  <si>
+    <t>fqj2d007</t>
+  </si>
+  <si>
+    <t>fqj2d008</t>
+  </si>
+  <si>
+    <t>fqj2d009</t>
+  </si>
+  <si>
+    <t>fqj2d010</t>
+  </si>
+  <si>
+    <t>fqj2d011</t>
+  </si>
+  <si>
+    <t>fqj2d012</t>
+  </si>
+  <si>
+    <t>fqj2d013</t>
+  </si>
+  <si>
+    <t>fqj2d014</t>
+  </si>
+  <si>
+    <t>fqj2d015</t>
+  </si>
+  <si>
+    <t>fqj2d016</t>
+  </si>
+  <si>
+    <t>fqj2d017</t>
+  </si>
+  <si>
+    <t>fqj2d018</t>
+  </si>
+  <si>
+    <t>fqj2d019</t>
+  </si>
+  <si>
+    <t>fqj2d020</t>
+  </si>
+  <si>
+    <t>fqj2d021</t>
+  </si>
+  <si>
+    <t>fqj2d022</t>
+  </si>
+  <si>
+    <t>fqj2d023</t>
+  </si>
+  <si>
+    <t>fqj2d024</t>
+  </si>
+  <si>
+    <t>fqj2d025</t>
+  </si>
+  <si>
+    <t>fqj2d026</t>
+  </si>
+  <si>
+    <t>fqj2d027</t>
+  </si>
+  <si>
+    <t>fqj2d028</t>
+  </si>
+  <si>
+    <t>fqj2d029</t>
+  </si>
+  <si>
+    <t>fqj2d030</t>
+  </si>
+  <si>
+    <t>fqj2d031</t>
+  </si>
+  <si>
+    <t>fqj2d032</t>
+  </si>
+  <si>
+    <t>fqj2d033</t>
+  </si>
+  <si>
+    <t>fqj2d034</t>
+  </si>
+  <si>
+    <t>fqj2d035</t>
+  </si>
+  <si>
+    <t>控件类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文本框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>唯一标识方法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作实例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作控件后等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有弹窗出现</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗中输入文件名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭弹窗按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有嵌套弹窗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗标题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>嵌套弹窗关闭按钮名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选框</t>
+  </si>
+  <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>勾选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单选框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下拉框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CheckBox15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RadioButton7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果等到时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComboBox0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>均</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>极</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>方式一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Edit3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Button3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择校核工况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择结构单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择校核工况</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>垂直于主承载方向 宽度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1177,390 +1560,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>垂直于主承载方向 宽度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平行于主承载方向 宽度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>垂直于主承载方向 宽度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果文本信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例状态</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期值信息类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作窗口标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作子窗口标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始化级别</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个被测模块</t>
-  </si>
-  <si>
-    <t>预期结果文本信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作窗口标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作子窗口标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fqj2d001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>fqj2d002</t>
-  </si>
-  <si>
-    <t>fqj2d003</t>
-  </si>
-  <si>
-    <t>fqj2d004</t>
-  </si>
-  <si>
-    <t>fqj2d005</t>
-  </si>
-  <si>
-    <t>fqj2d006</t>
-  </si>
-  <si>
-    <t>fqj2d007</t>
-  </si>
-  <si>
-    <t>fqj2d008</t>
-  </si>
-  <si>
-    <t>fqj2d009</t>
-  </si>
-  <si>
-    <t>fqj2d010</t>
-  </si>
-  <si>
-    <t>fqj2d011</t>
-  </si>
-  <si>
-    <t>fqj2d012</t>
-  </si>
-  <si>
-    <t>fqj2d013</t>
-  </si>
-  <si>
-    <t>fqj2d014</t>
-  </si>
-  <si>
-    <t>fqj2d015</t>
-  </si>
-  <si>
-    <t>fqj2d016</t>
-  </si>
-  <si>
-    <t>fqj2d017</t>
-  </si>
-  <si>
-    <t>fqj2d018</t>
-  </si>
-  <si>
-    <t>fqj2d019</t>
-  </si>
-  <si>
-    <t>fqj2d020</t>
-  </si>
-  <si>
-    <t>fqj2d021</t>
-  </si>
-  <si>
-    <t>fqj2d022</t>
-  </si>
-  <si>
-    <t>fqj2d023</t>
-  </si>
-  <si>
-    <t>fqj2d024</t>
-  </si>
-  <si>
-    <t>fqj2d025</t>
-  </si>
-  <si>
-    <t>fqj2d026</t>
-  </si>
-  <si>
-    <t>fqj2d027</t>
-  </si>
-  <si>
-    <t>fqj2d028</t>
-  </si>
-  <si>
-    <t>fqj2d029</t>
-  </si>
-  <si>
-    <t>fqj2d030</t>
-  </si>
-  <si>
-    <t>fqj2d031</t>
-  </si>
-  <si>
-    <t>fqj2d032</t>
-  </si>
-  <si>
-    <t>fqj2d033</t>
-  </si>
-  <si>
-    <t>fqj2d034</t>
-  </si>
-  <si>
-    <t>fqj2d035</t>
-  </si>
-  <si>
-    <t>控件类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>文本框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>唯一标识方法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作控件后等待时间</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗中输入文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭弹窗按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾选框</t>
-  </si>
-  <si>
-    <t>勾选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>勾选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>单选框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>下拉框</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox13</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CheckBox15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RadioButton9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboBox0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboBox2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ComboBox3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机身半径Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>B值减缩系数Edit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>校核Button</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试结果等到时间</t>
+    <t>1、选择校核类型勾选框勾选全部都勾选；
+2、曲板结构勾选框勾选，对应的机身半径文本框默认输入；
+3、结构类型单选框勾选“翼盒蒙皮”；
+4、B值减缩系数文本框默认输入；
+5、主承载方向中坐标系选择“单元坐标系”，参考方向选择“Y轴”；
+6、宽度修正系数下拉框选择“平行于主承载方向宽度”，对应的文本框默认输入；
+7、蒙皮计算宽度选择“方法一”
+8、载荷类型选择极值；
+9、校核工况选择全部的工况；
+10、选择全部的结构单元。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y轴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1713,7 +1733,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1999,22 +2019,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR9"/>
+  <dimension ref="A1:AS9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="6.3984375" style="5" customWidth="1"/>
-    <col min="3" max="26" width="6.3984375" style="2" customWidth="1"/>
-    <col min="27" max="29" width="6.3984375" customWidth="1"/>
-    <col min="30" max="30" width="6.3984375" style="2" customWidth="1"/>
-    <col min="31" max="44" width="6.3984375" customWidth="1"/>
+    <col min="2" max="2" width="34.875" style="5" customWidth="1"/>
+    <col min="3" max="26" width="6.375" style="2" customWidth="1"/>
+    <col min="27" max="29" width="6.375" customWidth="1"/>
+    <col min="30" max="30" width="6.375" style="2" customWidth="1"/>
+    <col min="31" max="44" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2127,29 +2147,34 @@
         <v>57</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>108</v>
+        <v>183</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:44" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
+    <row r="2" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="B2" s="4" t="s">
         <v>59</v>
       </c>
@@ -2226,7 +2251,7 @@
         <v>75</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AB2" s="9" t="s">
         <v>51</v>
@@ -2259,13 +2284,13 @@
         <v>51</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AM2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN2" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="AO2" s="10" t="s">
         <v>55</v>
@@ -2274,13 +2299,18 @@
         <v>55</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="AR2" s="10">
+        <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:44" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
+    <row r="3" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="B3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>28</v>
@@ -2352,10 +2382,10 @@
         <v>52</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="AB3" s="9" t="s">
         <v>51</v>
@@ -2391,10 +2421,10 @@
         <v>53</v>
       </c>
       <c r="AM3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN3" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="AO3" s="10" t="s">
         <v>55</v>
@@ -2403,13 +2433,18 @@
         <v>55</v>
       </c>
       <c r="AQ3" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="AR3" s="10">
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:44" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
@@ -2481,10 +2516,10 @@
         <v>52</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AB4" s="9" t="s">
         <v>51</v>
@@ -2517,13 +2552,13 @@
         <v>51</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AM4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN4" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN4" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="AO4" s="10" t="s">
         <v>55</v>
@@ -2532,13 +2567,18 @@
         <v>55</v>
       </c>
       <c r="AQ4" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="AR4" s="10">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:44" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
@@ -2610,10 +2650,10 @@
         <v>52</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>51</v>
@@ -2646,13 +2686,13 @@
         <v>51</v>
       </c>
       <c r="AL5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AM5" s="7" t="s">
+      <c r="AN5" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN5" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="AO5" s="10" t="s">
         <v>55</v>
@@ -2661,13 +2701,18 @@
         <v>55</v>
       </c>
       <c r="AQ5" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="AR5" s="10">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:44" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
@@ -2736,13 +2781,13 @@
         <v>51</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z6" s="8" t="s">
         <v>75</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AB6" s="9" t="s">
         <v>51</v>
@@ -2778,10 +2823,10 @@
         <v>53</v>
       </c>
       <c r="AM6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN6" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN6" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="AO6" s="10" t="s">
         <v>55</v>
@@ -2790,13 +2835,18 @@
         <v>55</v>
       </c>
       <c r="AQ6" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="AR6" s="10">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:44" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11" t="s">
+        <v>105</v>
+      </c>
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -2865,13 +2915,13 @@
         <v>51</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>51</v>
@@ -2904,13 +2954,13 @@
         <v>51</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AM7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN7" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="AO7" s="10" t="s">
         <v>55</v>
@@ -2919,13 +2969,18 @@
         <v>55</v>
       </c>
       <c r="AQ7" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="AR7" s="10">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:44" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11" t="s">
+        <v>106</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
@@ -3000,7 +3055,7 @@
         <v>75</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>98</v>
+        <v>205</v>
       </c>
       <c r="AB8" s="9" t="s">
         <v>51</v>
@@ -3033,13 +3088,13 @@
         <v>51</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AM8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN8" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="AO8" s="10" t="s">
         <v>55</v>
@@ -3048,12 +3103,18 @@
         <v>55</v>
       </c>
       <c r="AQ8" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="AR8" s="10">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:44" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="B9" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
@@ -3125,10 +3186,10 @@
         <v>52</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>99</v>
+        <v>204</v>
       </c>
       <c r="AB9" s="9" t="s">
         <v>51</v>
@@ -3164,10 +3225,10 @@
         <v>53</v>
       </c>
       <c r="AM9" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="AO9" s="10" t="s">
         <v>55</v>
@@ -3176,7 +3237,10 @@
         <v>55</v>
       </c>
       <c r="AQ9" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="AR9" s="10">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -3197,17 +3261,17 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:AI12"/>
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="35" width="5.86328125" style="2" customWidth="1"/>
+    <col min="2" max="35" width="5.875" style="2" customWidth="1"/>
     <col min="36" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
         <v>29</v>
@@ -3312,295 +3376,437 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="W2" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="X2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>150</v>
+      <c r="O3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="3" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="T3" s="3" t="s">
+    <row r="4" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AB3" s="3" t="s">
+      <c r="C4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="R4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AH4" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI4" s="3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE3" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF5" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>200</v>
+      <c r="AG5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH5" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AI5" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3"/>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
-      <c r="AI4" s="3"/>
-    </row>
-    <row r="5" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-    </row>
-    <row r="6" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -3705,967 +3911,967 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="V8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF8" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="AG8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH8" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI8" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF9" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH7" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>201</v>
+      <c r="AG9" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="AH9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI9" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>157</v>
+    <row r="10" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF10" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AG10" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI10" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>157</v>
+    <row r="11" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="U11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH11" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI11" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>157</v>
+    <row r="12" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH12" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AI12" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>157</v>
+    <row r="13" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI13" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AI12" s="3" t="s">
-        <v>201</v>
+    <row r="14" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH14" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI14" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH13" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI13" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AF14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AH14" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="AI14" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="U15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="W15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AA15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AB15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AC15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AD15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AE15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AF15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AH15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="AI15" s="3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4679,22 +4885,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AR1" sqref="AR1:AR1048576"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="148.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="148.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
-    <col min="2" max="2" width="71.86328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="6.46484375" style="3" customWidth="1"/>
-    <col min="4" max="43" width="6.46484375" style="12" customWidth="1"/>
-    <col min="44" max="44" width="7.59765625" style="12" customWidth="1"/>
-    <col min="45" max="67" width="6.46484375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="71.875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="6.5" style="3" customWidth="1"/>
+    <col min="4" max="43" width="6.5" style="12" customWidth="1"/>
+    <col min="44" max="44" width="7.625" style="12" customWidth="1"/>
+    <col min="45" max="67" width="6.5" style="12" customWidth="1"/>
     <col min="68" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4807,33 +5013,33 @@
         <v>57</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>59</v>
@@ -4911,7 +5117,7 @@
         <v>75</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AB2" s="9" t="s">
         <v>51</v>
@@ -4944,13 +5150,13 @@
         <v>51</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AM2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN2" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="AO2" s="10" t="s">
         <v>55</v>
@@ -4959,18 +5165,18 @@
         <v>55</v>
       </c>
       <c r="AQ2" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="AR2" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>28</v>
@@ -5042,10 +5248,10 @@
         <v>52</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="AB3" s="9" t="s">
         <v>51</v>
@@ -5081,10 +5287,10 @@
         <v>53</v>
       </c>
       <c r="AM3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN3" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN3" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="AO3" s="10" t="s">
         <v>55</v>
@@ -5093,18 +5299,18 @@
         <v>55</v>
       </c>
       <c r="AQ3" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="AR3" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
@@ -5176,10 +5382,10 @@
         <v>52</v>
       </c>
       <c r="Z4" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AA4" s="9" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AB4" s="9" t="s">
         <v>51</v>
@@ -5212,13 +5418,13 @@
         <v>51</v>
       </c>
       <c r="AL4" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AM4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN4" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN4" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="AO4" s="10" t="s">
         <v>55</v>
@@ -5227,18 +5433,18 @@
         <v>55</v>
       </c>
       <c r="AQ4" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="AR4" s="10">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>28</v>
@@ -5310,10 +5516,10 @@
         <v>52</v>
       </c>
       <c r="Z5" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>51</v>
@@ -5346,13 +5552,13 @@
         <v>51</v>
       </c>
       <c r="AL5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AM5" s="7" t="s">
+      <c r="AN5" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN5" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="AO5" s="10" t="s">
         <v>55</v>
@@ -5361,15 +5567,18 @@
         <v>55</v>
       </c>
       <c r="AQ5" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="AR5" s="10">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>28</v>
@@ -5438,13 +5647,13 @@
         <v>51</v>
       </c>
       <c r="Y6" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z6" s="8" t="s">
         <v>75</v>
       </c>
       <c r="AA6" s="9" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="AB6" s="9" t="s">
         <v>51</v>
@@ -5480,10 +5689,10 @@
         <v>53</v>
       </c>
       <c r="AM6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN6" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN6" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="AO6" s="10" t="s">
         <v>55</v>
@@ -5492,15 +5701,18 @@
         <v>55</v>
       </c>
       <c r="AQ6" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="AR6" s="10">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>84</v>
+        <v>206</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -5569,13 +5781,13 @@
         <v>51</v>
       </c>
       <c r="Y7" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="Z7" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>51</v>
@@ -5608,13 +5820,13 @@
         <v>51</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AM7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN7" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN7" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="AO7" s="10" t="s">
         <v>55</v>
@@ -5623,15 +5835,18 @@
         <v>55</v>
       </c>
       <c r="AQ7" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="AR7" s="10">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>28</v>
@@ -5706,7 +5921,7 @@
         <v>75</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="AB8" s="9" t="s">
         <v>51</v>
@@ -5739,13 +5954,13 @@
         <v>51</v>
       </c>
       <c r="AL8" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AM8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AN8" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="AO8" s="10" t="s">
         <v>55</v>
@@ -5754,15 +5969,18 @@
         <v>55</v>
       </c>
       <c r="AQ8" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="AR8" s="10">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
@@ -5834,10 +6052,10 @@
         <v>52</v>
       </c>
       <c r="Z9" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>91</v>
+        <v>204</v>
       </c>
       <c r="AB9" s="9" t="s">
         <v>51</v>
@@ -5873,10 +6091,10 @@
         <v>53</v>
       </c>
       <c r="AM9" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AO9" s="10" t="s">
         <v>55</v>
@@ -5885,23 +6103,26 @@
         <v>55</v>
       </c>
       <c r="AQ9" s="10" t="s">
-        <v>109</v>
+        <v>96</v>
+      </c>
+      <c r="AR9" s="10">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>60</v>
@@ -5910,9 +6131,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>61</v>
@@ -5921,20 +6142,20 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>5</v>
@@ -5943,9 +6164,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>6</v>
@@ -5954,9 +6175,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>7</v>
@@ -5965,9 +6186,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="11" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>8</v>
@@ -5976,9 +6197,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="11" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>9</v>
@@ -5987,9 +6208,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="11" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>10</v>
@@ -5998,9 +6219,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>11</v>
@@ -6009,9 +6230,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="11" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>12</v>
@@ -6020,9 +6241,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="11" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>13</v>
@@ -6031,9 +6252,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="11" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>14</v>
@@ -6042,9 +6263,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="11" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>15</v>
@@ -6053,9 +6274,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="11" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>16</v>
@@ -6064,9 +6285,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="11" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>17</v>
@@ -6075,9 +6296,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="11" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>18</v>
@@ -6086,9 +6307,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="11" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>19</v>
@@ -6097,9 +6318,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="11" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>20</v>
@@ -6108,9 +6329,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="11" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>21</v>
@@ -6119,9 +6340,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="11" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>22</v>
@@ -6130,9 +6351,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="11" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>23</v>
@@ -6141,9 +6362,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="11" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>24</v>
@@ -6152,9 +6373,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="11" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>25</v>
@@ -6163,9 +6384,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="11" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>26</v>
@@ -6174,9 +6395,9 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="11" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>27</v>
@@ -6206,7 +6427,7 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6221,7 +6442,7 @@
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6237,7 +6458,7 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6252,7 +6473,7 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
@@ -2021,7 +2021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -3261,7 +3261,7 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="AG7" sqref="AG7:AG10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4885,8 +4885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AI2" sqref="AI2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="148.5" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
@@ -464,7 +464,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="209">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1573,7 +1573,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Y轴</t>
+    <t>模块唯一标识</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>复材结构强度校核--复合材料强度校核2D</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2019,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS9"/>
+  <dimension ref="A1:AT9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="B1" sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2034,7 +2038,7 @@
     <col min="31" max="44" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2168,10 +2172,13 @@
         <v>183</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>100</v>
       </c>
@@ -2212,7 +2219,7 @@
         <v>43</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O2" s="8" t="s">
         <v>43</v>
@@ -2233,13 +2240,13 @@
         <v>43</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="X2" s="9" t="s">
         <v>51</v>
@@ -2260,10 +2267,10 @@
         <v>43</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AE2" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AF2" s="9" t="s">
         <v>43</v>
@@ -2287,7 +2294,7 @@
         <v>89</v>
       </c>
       <c r="AM2" s="7" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="AN2" s="7" t="s">
         <v>54</v>
@@ -2304,8 +2311,11 @@
       <c r="AR2" s="10">
         <v>3</v>
       </c>
+      <c r="AS2" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>101</v>
       </c>
@@ -2346,7 +2356,7 @@
         <v>43</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>43</v>
@@ -2364,16 +2374,16 @@
         <v>51</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="U3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="W3" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="X3" s="9" t="s">
         <v>51</v>
@@ -2382,7 +2392,7 @@
         <v>52</v>
       </c>
       <c r="Z3" s="8" t="s">
-        <v>207</v>
+        <v>76</v>
       </c>
       <c r="AA3" s="9" t="s">
         <v>204</v>
@@ -2391,13 +2401,13 @@
         <v>51</v>
       </c>
       <c r="AC3" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AD3" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AE3" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AF3" s="9" t="s">
         <v>51</v>
@@ -2438,8 +2448,11 @@
       <c r="AR3" s="10">
         <v>3</v>
       </c>
+      <c r="AS3" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>102</v>
       </c>
@@ -2480,7 +2493,7 @@
         <v>43</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O4" s="8" t="s">
         <v>43</v>
@@ -2498,16 +2511,16 @@
         <v>51</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>43</v>
       </c>
       <c r="W4" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="X4" s="9" t="s">
         <v>51</v>
@@ -2525,10 +2538,10 @@
         <v>51</v>
       </c>
       <c r="AC4" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AD4" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AE4" s="8" t="s">
         <v>43</v>
@@ -2572,8 +2585,11 @@
       <c r="AR4" s="10">
         <v>0.5</v>
       </c>
+      <c r="AS4" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>103</v>
       </c>
@@ -2614,7 +2630,7 @@
         <v>43</v>
       </c>
       <c r="N5" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O5" s="8" t="s">
         <v>43</v>
@@ -2632,13 +2648,13 @@
         <v>51</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="U5" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="V5" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="W5" s="8" t="s">
         <v>43</v>
@@ -2662,10 +2678,10 @@
         <v>43</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AE5" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AF5" s="9" t="s">
         <v>51</v>
@@ -2706,8 +2722,11 @@
       <c r="AR5" s="10">
         <v>0.5</v>
       </c>
+      <c r="AS5" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>104</v>
       </c>
@@ -2748,7 +2767,7 @@
         <v>43</v>
       </c>
       <c r="N6" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O6" s="8" t="s">
         <v>43</v>
@@ -2769,13 +2788,13 @@
         <v>43</v>
       </c>
       <c r="U6" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="V6" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="W6" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="X6" s="9" t="s">
         <v>51</v>
@@ -2793,13 +2812,13 @@
         <v>51</v>
       </c>
       <c r="AC6" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AD6" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AE6" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AF6" s="9" t="s">
         <v>43</v>
@@ -2840,8 +2859,11 @@
       <c r="AR6" s="10">
         <v>0.5</v>
       </c>
+      <c r="AS6" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
@@ -2882,7 +2904,7 @@
         <v>43</v>
       </c>
       <c r="N7" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O7" s="8" t="s">
         <v>43</v>
@@ -2900,16 +2922,16 @@
         <v>51</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="U7" s="8" t="s">
         <v>43</v>
       </c>
       <c r="V7" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="X7" s="9" t="s">
         <v>51</v>
@@ -2927,10 +2949,10 @@
         <v>51</v>
       </c>
       <c r="AC7" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AD7" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AE7" s="8" t="s">
         <v>43</v>
@@ -2974,8 +2996,11 @@
       <c r="AR7" s="10">
         <v>0.5</v>
       </c>
+      <c r="AS7" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
@@ -3016,7 +3041,7 @@
         <v>43</v>
       </c>
       <c r="N8" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O8" s="8" t="s">
         <v>43</v>
@@ -3034,16 +3059,16 @@
         <v>51</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="U8" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>43</v>
       </c>
       <c r="W8" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="X8" s="9" t="s">
         <v>51</v>
@@ -3064,10 +3089,10 @@
         <v>43</v>
       </c>
       <c r="AD8" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AE8" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AF8" s="9" t="s">
         <v>43</v>
@@ -3091,7 +3116,7 @@
         <v>89</v>
       </c>
       <c r="AM8" s="7" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="AN8" s="7" t="s">
         <v>54</v>
@@ -3108,8 +3133,11 @@
       <c r="AR8" s="10">
         <v>0.5</v>
       </c>
+      <c r="AS8" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
@@ -3150,7 +3178,7 @@
         <v>43</v>
       </c>
       <c r="N9" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="O9" s="8" t="s">
         <v>43</v>
@@ -3168,13 +3196,13 @@
         <v>51</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="W9" s="8" t="s">
         <v>43</v>
@@ -3195,13 +3223,13 @@
         <v>51</v>
       </c>
       <c r="AC9" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AD9" s="8" t="s">
         <v>43</v>
       </c>
       <c r="AE9" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AF9" s="9" t="s">
         <v>51</v>
@@ -3225,10 +3253,10 @@
         <v>53</v>
       </c>
       <c r="AM9" s="7" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="AN9" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="AO9" s="10" t="s">
         <v>55</v>
@@ -3241,6 +3269,9 @@
       </c>
       <c r="AR9" s="10">
         <v>0.5</v>
+      </c>
+      <c r="AS9" s="10" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -4883,10 +4914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS36"/>
+  <dimension ref="A1:AT36"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AI2" sqref="AI2"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="148.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4895,12 +4926,12 @@
     <col min="2" max="2" width="71.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.5" style="3" customWidth="1"/>
     <col min="4" max="43" width="6.5" style="12" customWidth="1"/>
-    <col min="44" max="44" width="7.625" style="12" customWidth="1"/>
-    <col min="45" max="67" width="6.5" style="12" customWidth="1"/>
-    <col min="68" max="16384" width="9" style="12"/>
+    <col min="44" max="45" width="7.625" style="12" customWidth="1"/>
+    <col min="46" max="68" width="6.5" style="12" customWidth="1"/>
+    <col min="69" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5034,10 +5065,13 @@
         <v>183</v>
       </c>
       <c r="AS1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AT1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
         <v>100</v>
       </c>
@@ -5170,8 +5204,11 @@
       <c r="AR2" s="10">
         <v>3</v>
       </c>
+      <c r="AS2" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>101</v>
       </c>
@@ -5304,8 +5341,11 @@
       <c r="AR3" s="10">
         <v>3</v>
       </c>
+      <c r="AS3" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="4" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>102</v>
       </c>
@@ -5438,8 +5478,11 @@
       <c r="AR4" s="10">
         <v>0.5</v>
       </c>
+      <c r="AS4" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="5" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>103</v>
       </c>
@@ -5572,8 +5615,11 @@
       <c r="AR5" s="10">
         <v>0.5</v>
       </c>
+      <c r="AS5" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="6" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>104</v>
       </c>
@@ -5706,8 +5752,11 @@
       <c r="AR6" s="10">
         <v>0.5</v>
       </c>
+      <c r="AS6" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="7" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
@@ -5840,8 +5889,11 @@
       <c r="AR7" s="10">
         <v>0.5</v>
       </c>
+      <c r="AS7" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="8" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
@@ -5974,8 +6026,11 @@
       <c r="AR8" s="10">
         <v>0.5</v>
       </c>
+      <c r="AS8" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="9" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
@@ -6108,8 +6163,11 @@
       <c r="AR9" s="10">
         <v>0.5</v>
       </c>
+      <c r="AS9" s="10" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="10" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
         <v>108</v>
       </c>
@@ -6120,7 +6178,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
         <v>109</v>
       </c>
@@ -6131,7 +6189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>110</v>
       </c>
@@ -6142,7 +6200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="11" t="s">
         <v>111</v>
       </c>
@@ -6153,7 +6211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="11" t="s">
         <v>112</v>
       </c>
@@ -6164,7 +6222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11" t="s">
         <v>113</v>
       </c>
@@ -6175,7 +6233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="11" t="s">
         <v>114</v>
       </c>

--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
@@ -4,16 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
-    <sheet name="控件属性已经操作方法" sheetId="9" r:id="rId2"/>
-    <sheet name="其他" sheetId="4" r:id="rId3"/>
-    <sheet name="均值" sheetId="5" r:id="rId4"/>
-    <sheet name="机身半径" sheetId="6" r:id="rId5"/>
-    <sheet name="B值减缩系数" sheetId="7" r:id="rId6"/>
-    <sheet name="宽度修正技术" sheetId="8" r:id="rId7"/>
+    <sheet name="测试一" sheetId="10" r:id="rId2"/>
+    <sheet name="控件属性已经操作方法" sheetId="9" r:id="rId3"/>
+    <sheet name="其他" sheetId="4" r:id="rId4"/>
+    <sheet name="均值" sheetId="5" r:id="rId5"/>
+    <sheet name="机身半径" sheetId="6" r:id="rId6"/>
+    <sheet name="B值减缩系数" sheetId="7" r:id="rId7"/>
+    <sheet name="宽度修正技术" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -188,6 +189,169 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="AM1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用于对比文本信息</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+用例执行状态
+执行
+不执行</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+预期值展示类型
+弹窗警告
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+在被测模块可能有嵌套窗口</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+警告弹窗
+信息窗口
+控件文本</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在执行每条用例前都会需要初始化模块
+整个被测模块</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
     <comment ref="A4" authorId="0" shapeId="0">
       <text>
         <r>
@@ -244,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,7 +434,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A14" authorId="0" shapeId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +456,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-警告弹窗</t>
+路径弹窗</t>
         </r>
       </text>
     </comment>
@@ -300,13 +464,13 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -332,7 +496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
+    <comment ref="AO1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -389,7 +553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AP1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -415,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -443,7 +607,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -464,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="206">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1305,46 +1469,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>是否有弹窗出现</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>弹窗中输入文件名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>关闭弹窗按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否有嵌套弹窗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗标题</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>嵌套弹窗关闭按钮名称</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>勾选框</t>
   </si>
   <si>
@@ -1464,10 +1592,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>测试结果等到时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1517,34 +1641,6 @@
   </si>
   <si>
     <t>Button3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择校核工况</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>选择结构单元</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1580,12 +1676,88 @@
     <t>复材结构强度校核--复合材料强度校核2D</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>套件类型一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数一</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件类型二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>套件参数二</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>按钮--弹窗套件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>按钮</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="1"/>
+      </rPr>
+      <t>--</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弹窗套件</t>
+    </r>
+  </si>
+  <si>
+    <t>测试结果等待时间</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动鼠标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动鼠标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚动鼠标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static6</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1631,6 +1803,20 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1680,7 +1866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1718,6 +1904,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2025,11 +2220,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B1" sqref="A1:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="34.875" style="5" customWidth="1"/>
     <col min="3" max="26" width="6.375" style="2" customWidth="1"/>
@@ -2038,7 +2233,7 @@
     <col min="31" max="44" width="6.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" s="1" customFormat="1" ht="148.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2169,16 +2364,16 @@
         <v>4</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>100</v>
       </c>
@@ -2312,10 +2507,10 @@
         <v>3</v>
       </c>
       <c r="AS2" s="10" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>101</v>
       </c>
@@ -2395,7 +2590,7 @@
         <v>76</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AB3" s="9" t="s">
         <v>51</v>
@@ -2449,10 +2644,10 @@
         <v>3</v>
       </c>
       <c r="AS3" s="10" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>102</v>
       </c>
@@ -2586,10 +2781,10 @@
         <v>0.5</v>
       </c>
       <c r="AS4" s="10" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>103</v>
       </c>
@@ -2669,7 +2864,7 @@
         <v>81</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>51</v>
@@ -2723,10 +2918,10 @@
         <v>0.5</v>
       </c>
       <c r="AS5" s="10" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>104</v>
       </c>
@@ -2860,15 +3055,15 @@
         <v>0.5</v>
       </c>
       <c r="AS6" s="10" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -2943,7 +3138,7 @@
         <v>85</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>51</v>
@@ -2997,10 +3192,10 @@
         <v>0.5</v>
       </c>
       <c r="AS7" s="10" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
@@ -3080,7 +3275,7 @@
         <v>75</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="AB8" s="9" t="s">
         <v>51</v>
@@ -3134,10 +3329,10 @@
         <v>0.5</v>
       </c>
       <c r="AS8" s="10" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
@@ -3217,7 +3412,7 @@
         <v>76</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AB9" s="9" t="s">
         <v>51</v>
@@ -3271,7 +3466,7 @@
         <v>0.5</v>
       </c>
       <c r="AS9" s="10" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3289,20 +3484,325 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI15"/>
+  <dimension ref="A1:AU2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="148.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE1" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="AI1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AJ1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="AK1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL1" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" s="12" customFormat="1" ht="148.5" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="8">
+        <v>11</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="X2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG2" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH2" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS2" s="10">
+        <v>3</v>
+      </c>
+      <c r="AT2" s="10" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN1">
+      <formula1>"执行,不执行"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7:AG10"/>
+      <selection activeCell="W1" sqref="W1:W1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="15" style="2" customWidth="1"/>
-    <col min="2" max="35" width="5.875" style="2" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="2"/>
+    <col min="2" max="36" width="5.875" style="2" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="13" customFormat="1" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" s="13" customFormat="1" ht="111" customHeight="1">
       <c r="A1" s="1"/>
       <c r="B1" s="7" t="s">
         <v>29</v>
@@ -3394,448 +3894,463 @@
       <c r="AE1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AG1" s="7" t="s">
+      <c r="AH1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AI1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" ht="46.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>136</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>136</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>136</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>137</v>
+        <v>198</v>
+      </c>
+      <c r="AH2" s="16" t="s">
+        <v>199</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="AJ2" s="3" t="s">
+        <v>137</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" ht="46.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="V3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="R3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>181</v>
-      </c>
     </row>
-    <row r="4" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" ht="46.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>187</v>
+        <v>177</v>
+      </c>
+      <c r="AJ4" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:36" ht="46.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="T5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AA5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AC5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AD5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AE5" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="AF5" s="3" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="AG5" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="AH5" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="AI5" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
+      </c>
+      <c r="AJ5" s="3" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" ht="46.5" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>141</v>
       </c>
@@ -3941,968 +4456,448 @@
       <c r="AI6" s="3">
         <v>0</v>
       </c>
+      <c r="AJ6" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="J7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="M7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="S7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="T7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="V7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="X7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AF7" s="14" t="s">
         <v>142</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="M7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="W7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="X7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF7" s="3" t="s">
+      <c r="AG7" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI7" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="AJ7" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" s="15" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="R8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="S8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="T8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="X8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF8" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI8" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ8" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" s="15" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AG7" s="3" t="s">
+      <c r="B9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="O9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="R9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="S9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="V9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="X9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AA9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AB9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AC9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AD9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI9" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AJ9" s="14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="15" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A10" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AH7" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI7" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="W8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF8" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG8" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="AH8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI8" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="W9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF9" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG9" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH9" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI9" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF10" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="AG10" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH10" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI10" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH11" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI11" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AA12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AC12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AF12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH12" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI12" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH13" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI13" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH14" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI14" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AC15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AE15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AH15" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI15" s="3" t="s">
-        <v>144</v>
+      <c r="B10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="L10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="O10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="R10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="S10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="T10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="V10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="X10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AA10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AB10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AC10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AF10" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI10" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="AJ10" s="14" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -4912,26 +4907,26 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT36"/>
+  <dimension ref="A1:AU36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection sqref="A1:XFD9"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="148.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="148.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="12"/>
     <col min="2" max="2" width="71.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="6.5" style="3" customWidth="1"/>
-    <col min="4" max="43" width="6.5" style="12" customWidth="1"/>
-    <col min="44" max="45" width="7.625" style="12" customWidth="1"/>
-    <col min="46" max="68" width="6.5" style="12" customWidth="1"/>
-    <col min="69" max="16384" width="9" style="12"/>
+    <col min="4" max="44" width="6.5" style="12" customWidth="1"/>
+    <col min="45" max="46" width="7.625" style="12" customWidth="1"/>
+    <col min="47" max="69" width="6.5" style="12" customWidth="1"/>
+    <col min="70" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="148.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5031,47 +5026,50 @@
       <c r="AG1" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AI1" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="7" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="7" t="s">
+      <c r="AK1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="7" t="s">
+      <c r="AL1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="AS1" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AT1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:47" ht="148.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>100</v>
       </c>
@@ -5171,44 +5169,47 @@
       <c r="AG2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AH2" s="7" t="s">
-        <v>43</v>
+      <c r="AH2" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="AI2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="AK2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL2" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM2" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AM2" s="7" t="s">
+      <c r="AN2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AN2" s="7" t="s">
+      <c r="AO2" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AO2" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="AP2" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AQ2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AR2" s="10">
+      <c r="AS2" s="10">
         <v>3</v>
       </c>
-      <c r="AS2" s="10" t="s">
-        <v>208</v>
+      <c r="AT2" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:47" ht="148.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>101</v>
       </c>
@@ -5288,7 +5289,7 @@
         <v>76</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AB3" s="9" t="s">
         <v>51</v>
@@ -5308,44 +5309,47 @@
       <c r="AG3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AH3" s="7" t="s">
-        <v>43</v>
+      <c r="AH3" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="AI3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AJ3" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="AK3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM3" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AN3" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AN3" s="7" t="s">
+      <c r="AO3" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AO3" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="AP3" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AQ3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AR3" s="10">
+      <c r="AS3" s="10">
         <v>3</v>
       </c>
-      <c r="AS3" s="10" t="s">
-        <v>208</v>
+      <c r="AT3" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:47" ht="148.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>102</v>
       </c>
@@ -5445,44 +5449,47 @@
       <c r="AG4" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AH4" s="7" t="s">
-        <v>43</v>
+      <c r="AH4" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="AI4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AJ4" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="AK4" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL4" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM4" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AM4" s="7" t="s">
+      <c r="AN4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AN4" s="7" t="s">
+      <c r="AO4" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AO4" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="AP4" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AQ4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR4" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AR4" s="10">
+      <c r="AS4" s="10">
         <v>0.5</v>
       </c>
-      <c r="AS4" s="10" t="s">
-        <v>208</v>
+      <c r="AT4" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:47" ht="148.5" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>103</v>
       </c>
@@ -5562,7 +5569,7 @@
         <v>81</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>51</v>
@@ -5582,44 +5589,47 @@
       <c r="AG5" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AH5" s="7" t="s">
-        <v>43</v>
+      <c r="AH5" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="AI5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AJ5" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="AK5" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL5" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AM5" s="7" t="s">
+      <c r="AN5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="AN5" s="7" t="s">
+      <c r="AO5" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AO5" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="AP5" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AQ5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR5" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AR5" s="10">
+      <c r="AS5" s="10">
         <v>0.5</v>
       </c>
-      <c r="AS5" s="10" t="s">
-        <v>208</v>
+      <c r="AT5" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:47" ht="148.5" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>104</v>
       </c>
@@ -5719,49 +5729,52 @@
       <c r="AG6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="7" t="s">
-        <v>43</v>
+      <c r="AH6" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="AI6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AJ6" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="AK6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL6" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AM6" s="7" t="s">
+      <c r="AN6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AN6" s="7" t="s">
+      <c r="AO6" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AO6" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="AP6" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AQ6" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR6" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AR6" s="10">
+      <c r="AS6" s="10">
         <v>0.5</v>
       </c>
-      <c r="AS6" s="10" t="s">
-        <v>208</v>
+      <c r="AT6" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:47" ht="148.5" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -5836,7 +5849,7 @@
         <v>85</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>51</v>
@@ -5856,44 +5869,47 @@
       <c r="AG7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AH7" s="7" t="s">
-        <v>43</v>
+      <c r="AH7" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="AI7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AJ7" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="AK7" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM7" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AM7" s="7" t="s">
+      <c r="AN7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AN7" s="7" t="s">
+      <c r="AO7" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AO7" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="AP7" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AQ7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR7" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AR7" s="10">
+      <c r="AS7" s="10">
         <v>0.5</v>
       </c>
-      <c r="AS7" s="10" t="s">
-        <v>208</v>
+      <c r="AT7" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:47" ht="148.5" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
@@ -5973,7 +5989,7 @@
         <v>75</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>205</v>
+        <v>188</v>
       </c>
       <c r="AB8" s="9" t="s">
         <v>51</v>
@@ -5993,44 +6009,47 @@
       <c r="AG8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AH8" s="7" t="s">
-        <v>43</v>
+      <c r="AH8" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="AI8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ8" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AJ8" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="AK8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM8" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AM8" s="7" t="s">
+      <c r="AN8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AN8" s="7" t="s">
+      <c r="AO8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="AO8" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="AP8" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AQ8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR8" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AR8" s="10">
+      <c r="AS8" s="10">
         <v>0.5</v>
       </c>
-      <c r="AS8" s="10" t="s">
-        <v>208</v>
+      <c r="AT8" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:47" ht="148.5" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
@@ -6110,7 +6129,7 @@
         <v>76</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="AB9" s="9" t="s">
         <v>51</v>
@@ -6130,44 +6149,47 @@
       <c r="AG9" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="AH9" s="7" t="s">
-        <v>43</v>
+      <c r="AH9" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="AI9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ9" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AJ9" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="AK9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL9" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM9" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AM9" s="7" t="s">
+      <c r="AN9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="AN9" s="7" t="s">
+      <c r="AO9" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="AO9" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="AP9" s="10" t="s">
         <v>55</v>
       </c>
       <c r="AQ9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="AR9" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="AR9" s="10">
+      <c r="AS9" s="10">
         <v>0.5</v>
       </c>
-      <c r="AS9" s="10" t="s">
-        <v>208</v>
+      <c r="AT9" s="10" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:47" ht="148.5" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>108</v>
       </c>
@@ -6178,7 +6200,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:47" ht="148.5" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>109</v>
       </c>
@@ -6189,7 +6211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:47" ht="148.5" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>110</v>
       </c>
@@ -6200,7 +6222,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:47" ht="148.5" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>111</v>
       </c>
@@ -6211,7 +6233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:47" ht="148.5" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>112</v>
       </c>
@@ -6222,7 +6244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:47" ht="148.5" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>113</v>
       </c>
@@ -6233,7 +6255,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:46" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:47" ht="148.5" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>114</v>
       </c>
@@ -6244,7 +6266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="148.5" customHeight="1">
       <c r="A17" s="11" t="s">
         <v>115</v>
       </c>
@@ -6255,7 +6277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="148.5" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>116</v>
       </c>
@@ -6266,7 +6288,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="148.5" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>117</v>
       </c>
@@ -6277,7 +6299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="148.5" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>118</v>
       </c>
@@ -6288,7 +6310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="148.5" customHeight="1">
       <c r="A21" s="11" t="s">
         <v>119</v>
       </c>
@@ -6299,7 +6321,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="148.5" customHeight="1">
       <c r="A22" s="11" t="s">
         <v>120</v>
       </c>
@@ -6310,7 +6332,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="148.5" customHeight="1">
       <c r="A23" s="11" t="s">
         <v>121</v>
       </c>
@@ -6321,7 +6343,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="148.5" customHeight="1">
       <c r="A24" s="11" t="s">
         <v>122</v>
       </c>
@@ -6332,7 +6354,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="148.5" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>123</v>
       </c>
@@ -6343,7 +6365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="148.5" customHeight="1">
       <c r="A26" s="11" t="s">
         <v>124</v>
       </c>
@@ -6354,7 +6376,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="148.5" customHeight="1">
       <c r="A27" s="11" t="s">
         <v>125</v>
       </c>
@@ -6365,7 +6387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="148.5" customHeight="1">
       <c r="A28" s="11" t="s">
         <v>126</v>
       </c>
@@ -6376,7 +6398,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="148.5" customHeight="1">
       <c r="A29" s="11" t="s">
         <v>127</v>
       </c>
@@ -6387,7 +6409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="148.5" customHeight="1">
       <c r="A30" s="11" t="s">
         <v>128</v>
       </c>
@@ -6398,7 +6420,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="148.5" customHeight="1">
       <c r="A31" s="11" t="s">
         <v>129</v>
       </c>
@@ -6409,7 +6431,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="148.5" customHeight="1">
       <c r="A32" s="11" t="s">
         <v>130</v>
       </c>
@@ -6420,7 +6442,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" ht="148.5" customHeight="1">
       <c r="A33" s="11" t="s">
         <v>131</v>
       </c>
@@ -6431,7 +6453,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" ht="148.5" customHeight="1">
       <c r="A34" s="11" t="s">
         <v>132</v>
       </c>
@@ -6442,7 +6464,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:3" ht="148.5" customHeight="1">
       <c r="A35" s="11" t="s">
         <v>133</v>
       </c>
@@ -6453,7 +6475,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="148.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:3" ht="148.5" customHeight="1">
       <c r="A36" s="11" t="s">
         <v>134</v>
       </c>
@@ -6467,7 +6489,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN1">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6477,7 +6499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6485,26 +6507,10 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6513,13 +6519,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6531,9 +6538,25 @@
       <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -628,7 +628,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="207">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1751,6 +1751,10 @@
   </si>
   <si>
     <t>Static6</t>
+  </si>
+  <si>
+    <t>预期值控件标识属性</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1819,7 +1823,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1835,6 +1839,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1866,7 +1876,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1913,6 +1923,12 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2218,10 +2234,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT9"/>
+  <dimension ref="A1:AU12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD9"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1:AT1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2231,9 +2247,10 @@
     <col min="27" max="29" width="6.375" customWidth="1"/>
     <col min="30" max="30" width="6.375" style="2" customWidth="1"/>
     <col min="31" max="44" width="6.375" customWidth="1"/>
+    <col min="46" max="46" width="13.5" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="1" customFormat="1" ht="148.5" customHeight="1">
+    <row r="1" spans="1:47" s="1" customFormat="1" ht="148.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2369,11 +2386,14 @@
       <c r="AS1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AU1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
+    <row r="2" spans="1:47" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>100</v>
       </c>
@@ -2509,8 +2529,9 @@
       <c r="AS2" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
+      <c r="AT2" s="17"/>
+    </row>
+    <row r="3" spans="1:47" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>101</v>
       </c>
@@ -2646,8 +2667,9 @@
       <c r="AS3" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
+      <c r="AT3" s="18"/>
+    </row>
+    <row r="4" spans="1:47" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>102</v>
       </c>
@@ -2783,8 +2805,9 @@
       <c r="AS4" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
+      <c r="AT4" s="18"/>
+    </row>
+    <row r="5" spans="1:47" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>103</v>
       </c>
@@ -2920,8 +2943,9 @@
       <c r="AS5" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="6" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
+      <c r="AT5" s="18"/>
+    </row>
+    <row r="6" spans="1:47" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>104</v>
       </c>
@@ -3057,8 +3081,9 @@
       <c r="AS6" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="7" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
+      <c r="AT6" s="18"/>
+    </row>
+    <row r="7" spans="1:47" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
@@ -3194,8 +3219,9 @@
       <c r="AS7" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="8" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
+      <c r="AT7" s="18"/>
+    </row>
+    <row r="8" spans="1:47" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
@@ -3331,8 +3357,9 @@
       <c r="AS8" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="9" spans="1:46" s="12" customFormat="1" ht="148.5" customHeight="1">
+      <c r="AT8" s="18"/>
+    </row>
+    <row r="9" spans="1:47" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
@@ -3468,11 +3495,21 @@
       <c r="AS9" s="10" t="s">
         <v>191</v>
       </c>
+      <c r="AT9" s="18"/>
+    </row>
+    <row r="10" spans="1:47">
+      <c r="AT10" s="18"/>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="AT11" s="18"/>
+    </row>
+    <row r="12" spans="1:47">
+      <c r="AT12" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AM1 AT3:AT1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3484,15 +3521,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU2"/>
+  <dimension ref="A1:AV12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AO1" sqref="AO1"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AU1" sqref="AU1:AU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="47" max="47" width="13.5" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="148.5" customHeight="1">
+    <row r="1" spans="1:48" s="1" customFormat="1" ht="148.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3631,11 +3671,14 @@
       <c r="AT1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:47" s="12" customFormat="1" ht="148.5" customHeight="1">
+    <row r="2" spans="1:48" s="12" customFormat="1" ht="148.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>100</v>
       </c>
@@ -3774,11 +3817,42 @@
       <c r="AT2" s="10" t="s">
         <v>191</v>
       </c>
+      <c r="AU2" s="17"/>
+    </row>
+    <row r="3" spans="1:48">
+      <c r="AU3" s="18"/>
+    </row>
+    <row r="4" spans="1:48">
+      <c r="AU4" s="18"/>
+    </row>
+    <row r="5" spans="1:48">
+      <c r="AU5" s="18"/>
+    </row>
+    <row r="6" spans="1:48">
+      <c r="AU6" s="18"/>
+    </row>
+    <row r="7" spans="1:48">
+      <c r="AU7" s="18"/>
+    </row>
+    <row r="8" spans="1:48">
+      <c r="AU8" s="18"/>
+    </row>
+    <row r="9" spans="1:48">
+      <c r="AU9" s="18"/>
+    </row>
+    <row r="10" spans="1:48">
+      <c r="AU10" s="18"/>
+    </row>
+    <row r="11" spans="1:48">
+      <c r="AU11" s="18"/>
+    </row>
+    <row r="12" spans="1:48">
+      <c r="AU12" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN1 AU3:AU1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4909,10 +4983,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU36"/>
+  <dimension ref="A1:AV36"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AH1048576"/>
+      <selection activeCell="AU1" sqref="AU1:AU1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="148.5" customHeight="1"/>
@@ -4922,11 +4996,12 @@
     <col min="3" max="3" width="6.5" style="3" customWidth="1"/>
     <col min="4" max="44" width="6.5" style="12" customWidth="1"/>
     <col min="45" max="46" width="7.625" style="12" customWidth="1"/>
-    <col min="47" max="69" width="6.5" style="12" customWidth="1"/>
-    <col min="70" max="16384" width="9" style="12"/>
+    <col min="47" max="47" width="13.5" style="3" customWidth="1"/>
+    <col min="48" max="70" width="6.5" style="12" customWidth="1"/>
+    <col min="71" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="1" customFormat="1" ht="148.5" customHeight="1">
+    <row r="1" spans="1:48" s="1" customFormat="1" ht="148.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5065,11 +5140,14 @@
       <c r="AT1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="AV1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="148.5" customHeight="1">
+    <row r="2" spans="1:48" ht="148.5" customHeight="1">
       <c r="A2" s="11" t="s">
         <v>100</v>
       </c>
@@ -5208,8 +5286,9 @@
       <c r="AT2" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="3" spans="1:47" ht="148.5" customHeight="1">
+      <c r="AU2" s="17"/>
+    </row>
+    <row r="3" spans="1:48" ht="148.5" customHeight="1">
       <c r="A3" s="11" t="s">
         <v>101</v>
       </c>
@@ -5348,8 +5427,9 @@
       <c r="AT3" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="4" spans="1:47" ht="148.5" customHeight="1">
+      <c r="AU3" s="18"/>
+    </row>
+    <row r="4" spans="1:48" ht="148.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>102</v>
       </c>
@@ -5488,8 +5568,9 @@
       <c r="AT4" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="5" spans="1:47" ht="148.5" customHeight="1">
+      <c r="AU4" s="18"/>
+    </row>
+    <row r="5" spans="1:48" ht="148.5" customHeight="1">
       <c r="A5" s="11" t="s">
         <v>103</v>
       </c>
@@ -5628,8 +5709,9 @@
       <c r="AT5" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="6" spans="1:47" ht="148.5" customHeight="1">
+      <c r="AU5" s="18"/>
+    </row>
+    <row r="6" spans="1:48" ht="148.5" customHeight="1">
       <c r="A6" s="11" t="s">
         <v>104</v>
       </c>
@@ -5768,8 +5850,9 @@
       <c r="AT6" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="7" spans="1:47" ht="148.5" customHeight="1">
+      <c r="AU6" s="18"/>
+    </row>
+    <row r="7" spans="1:48" ht="148.5" customHeight="1">
       <c r="A7" s="11" t="s">
         <v>105</v>
       </c>
@@ -5908,8 +5991,9 @@
       <c r="AT7" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="8" spans="1:47" ht="148.5" customHeight="1">
+      <c r="AU7" s="18"/>
+    </row>
+    <row r="8" spans="1:48" ht="148.5" customHeight="1">
       <c r="A8" s="11" t="s">
         <v>106</v>
       </c>
@@ -6048,8 +6132,9 @@
       <c r="AT8" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="9" spans="1:47" ht="148.5" customHeight="1">
+      <c r="AU8" s="18"/>
+    </row>
+    <row r="9" spans="1:48" ht="148.5" customHeight="1">
       <c r="A9" s="11" t="s">
         <v>107</v>
       </c>
@@ -6188,8 +6273,9 @@
       <c r="AT9" s="10" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="10" spans="1:47" ht="148.5" customHeight="1">
+      <c r="AU9" s="18"/>
+    </row>
+    <row r="10" spans="1:48" ht="148.5" customHeight="1">
       <c r="A10" s="11" t="s">
         <v>108</v>
       </c>
@@ -6199,8 +6285,9 @@
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" spans="1:47" ht="148.5" customHeight="1">
+      <c r="AU10" s="18"/>
+    </row>
+    <row r="11" spans="1:48" ht="148.5" customHeight="1">
       <c r="A11" s="11" t="s">
         <v>109</v>
       </c>
@@ -6210,8 +6297,9 @@
       <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:47" ht="148.5" customHeight="1">
+      <c r="AU11" s="18"/>
+    </row>
+    <row r="12" spans="1:48" ht="148.5" customHeight="1">
       <c r="A12" s="11" t="s">
         <v>110</v>
       </c>
@@ -6221,8 +6309,9 @@
       <c r="C12" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:47" ht="148.5" customHeight="1">
+      <c r="AU12" s="18"/>
+    </row>
+    <row r="13" spans="1:48" ht="148.5" customHeight="1">
       <c r="A13" s="11" t="s">
         <v>111</v>
       </c>
@@ -6233,7 +6322,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="148.5" customHeight="1">
+    <row r="14" spans="1:48" ht="148.5" customHeight="1">
       <c r="A14" s="11" t="s">
         <v>112</v>
       </c>
@@ -6244,7 +6333,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="148.5" customHeight="1">
+    <row r="15" spans="1:48" ht="148.5" customHeight="1">
       <c r="A15" s="11" t="s">
         <v>113</v>
       </c>
@@ -6255,7 +6344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="148.5" customHeight="1">
+    <row r="16" spans="1:48" ht="148.5" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>114</v>
       </c>
@@ -6489,7 +6578,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AN1 AU3:AU1048576">
       <formula1>"执行,不执行"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6503,7 +6592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -3523,7 +3523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV12"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AU1" sqref="AU1:AU1048576"/>
     </sheetView>
   </sheetViews>
@@ -6592,7 +6592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>

--- a/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
+++ b/src/testCase/c_useCase_file/Aerocheck/复材结构强度校核/自动化二维复合材料强度校核.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="测试" sheetId="2" r:id="rId1"/>
@@ -1461,10 +1461,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>所操作实例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>操作控件后等待时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1755,6 +1751,9 @@
   <si>
     <t>预期值控件标识属性</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所操作控件窗口</t>
   </si>
 </sst>
 </file>
@@ -2381,13 +2380,13 @@
         <v>4</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AT1" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>3</v>
@@ -2527,7 +2526,7 @@
         <v>3</v>
       </c>
       <c r="AS2" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AT2" s="17"/>
     </row>
@@ -2611,7 +2610,7 @@
         <v>76</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB3" s="9" t="s">
         <v>51</v>
@@ -2665,7 +2664,7 @@
         <v>3</v>
       </c>
       <c r="AS3" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AT3" s="18"/>
     </row>
@@ -2803,7 +2802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS4" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AT4" s="18"/>
     </row>
@@ -2887,7 +2886,7 @@
         <v>81</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>51</v>
@@ -2941,7 +2940,7 @@
         <v>0.5</v>
       </c>
       <c r="AS5" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AT5" s="18"/>
     </row>
@@ -3079,7 +3078,7 @@
         <v>0.5</v>
       </c>
       <c r="AS6" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AT6" s="18"/>
     </row>
@@ -3088,7 +3087,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -3163,7 +3162,7 @@
         <v>85</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>51</v>
@@ -3217,7 +3216,7 @@
         <v>0.5</v>
       </c>
       <c r="AS7" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AT7" s="18"/>
     </row>
@@ -3301,7 +3300,7 @@
         <v>75</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB8" s="9" t="s">
         <v>51</v>
@@ -3355,7 +3354,7 @@
         <v>0.5</v>
       </c>
       <c r="AS8" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AT8" s="18"/>
     </row>
@@ -3439,7 +3438,7 @@
         <v>76</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB9" s="9" t="s">
         <v>51</v>
@@ -3493,7 +3492,7 @@
         <v>0.5</v>
       </c>
       <c r="AS9" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AT9" s="18"/>
     </row>
@@ -3523,7 +3522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+    <sheetView topLeftCell="W1" workbookViewId="0">
       <selection activeCell="AU1" sqref="AU1:AU1048576"/>
     </sheetView>
   </sheetViews>
@@ -3633,7 +3632,7 @@
         <v>68</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AI1" s="7" t="s">
         <v>56</v>
@@ -3666,13 +3665,13 @@
         <v>4</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AU1" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>3</v>
@@ -3779,7 +3778,7 @@
         <v>51</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI2" s="7" t="s">
         <v>43</v>
@@ -3815,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="AT2" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU2" s="17"/>
     </row>
@@ -3865,8 +3864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="46.5" customHeight="1"/>
@@ -3969,7 +3968,7 @@
         <v>68</v>
       </c>
       <c r="AF1" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG1" s="7" t="s">
         <v>56</v>
@@ -3989,103 +3988,103 @@
         <v>135</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>145</v>
-      </c>
       <c r="D2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>136</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V2" s="3" t="s">
         <v>136</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Z2" s="3" t="s">
         <v>136</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AG2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH2" s="16" t="s">
         <v>198</v>
-      </c>
-      <c r="AH2" s="16" t="s">
-        <v>199</v>
       </c>
       <c r="AI2" s="3" t="s">
         <v>137</v>
@@ -4099,109 +4098,109 @@
         <v>138</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="U3" s="3" t="s">
+      <c r="W3" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AC3" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="W3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
         <v>171</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AI3" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:36" ht="46.5" customHeight="1">
@@ -4209,224 +4208,224 @@
         <v>139</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AH4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AI4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AJ4" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="46.5" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>140</v>
+        <v>206</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AC5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AD5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AF5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG5" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="AH5" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="AI5" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="AJ5" s="3" t="s">
         <v>181</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="X5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AA5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AB5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AE5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AH5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AI5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AJ5" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="46.5" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
@@ -4536,442 +4535,442 @@
     </row>
     <row r="7" spans="1:36" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>193</v>
-      </c>
       <c r="C7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="T7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="U7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Y7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AA7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AB7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AD7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AE7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF7" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AH7" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AI7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AJ7" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="8" spans="1:36" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF8" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AH8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AJ8" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:36" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="N9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="O9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="P9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="S9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="U9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="V9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="W9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Y9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AA9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AB9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AD9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AE9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AH9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AI9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AJ9" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:36" s="15" customFormat="1" ht="40.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="N10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="S10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="T10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="U10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="V10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="W10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Z10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AA10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AB10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AC10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AD10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AE10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AF10" s="14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AG10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AH10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AI10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AJ10" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -5102,7 +5101,7 @@
         <v>68</v>
       </c>
       <c r="AH1" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AI1" s="7" t="s">
         <v>56</v>
@@ -5135,13 +5134,13 @@
         <v>4</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AU1" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AV1" s="1" t="s">
         <v>3</v>
@@ -5248,7 +5247,7 @@
         <v>51</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI2" s="7" t="s">
         <v>43</v>
@@ -5284,7 +5283,7 @@
         <v>3</v>
       </c>
       <c r="AT2" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU2" s="17"/>
     </row>
@@ -5368,7 +5367,7 @@
         <v>76</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB3" s="9" t="s">
         <v>51</v>
@@ -5389,7 +5388,7 @@
         <v>43</v>
       </c>
       <c r="AH3" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI3" s="7" t="s">
         <v>43</v>
@@ -5425,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="AT3" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU3" s="18"/>
     </row>
@@ -5530,7 +5529,7 @@
         <v>51</v>
       </c>
       <c r="AH4" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI4" s="7" t="s">
         <v>43</v>
@@ -5566,7 +5565,7 @@
         <v>0.5</v>
       </c>
       <c r="AT4" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU4" s="18"/>
     </row>
@@ -5650,7 +5649,7 @@
         <v>81</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB5" s="9" t="s">
         <v>51</v>
@@ -5671,7 +5670,7 @@
         <v>43</v>
       </c>
       <c r="AH5" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI5" s="7" t="s">
         <v>43</v>
@@ -5707,7 +5706,7 @@
         <v>0.5</v>
       </c>
       <c r="AT5" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU5" s="18"/>
     </row>
@@ -5812,7 +5811,7 @@
         <v>51</v>
       </c>
       <c r="AH6" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI6" s="7" t="s">
         <v>43</v>
@@ -5848,7 +5847,7 @@
         <v>0.5</v>
       </c>
       <c r="AT6" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU6" s="18"/>
     </row>
@@ -5857,7 +5856,7 @@
         <v>105</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>28</v>
@@ -5932,7 +5931,7 @@
         <v>85</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB7" s="9" t="s">
         <v>51</v>
@@ -5953,7 +5952,7 @@
         <v>43</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI7" s="7" t="s">
         <v>43</v>
@@ -5989,7 +5988,7 @@
         <v>0.5</v>
       </c>
       <c r="AT7" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU7" s="18"/>
     </row>
@@ -6073,7 +6072,7 @@
         <v>75</v>
       </c>
       <c r="AA8" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB8" s="9" t="s">
         <v>51</v>
@@ -6094,7 +6093,7 @@
         <v>51</v>
       </c>
       <c r="AH8" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI8" s="7" t="s">
         <v>43</v>
@@ -6130,7 +6129,7 @@
         <v>0.5</v>
       </c>
       <c r="AT8" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU8" s="18"/>
     </row>
@@ -6214,7 +6213,7 @@
         <v>76</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AB9" s="9" t="s">
         <v>51</v>
@@ -6235,7 +6234,7 @@
         <v>43</v>
       </c>
       <c r="AH9" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AI9" s="7" t="s">
         <v>43</v>
@@ -6271,7 +6270,7 @@
         <v>0.5</v>
       </c>
       <c r="AT9" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AU9" s="18"/>
     </row>
